--- a/metadata.xlsx
+++ b/metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitHub_Repository\customer-churn-analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6711708C-46CE-4D6F-9739-905542A00C4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A51D607-33B3-48B2-95FC-0E7ED0F38C64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C89B0BC2-A170-418A-B663-528562A091BC}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t>Customer Information</t>
   </si>
@@ -211,6 +211,21 @@
   </si>
   <si>
     <t>Indicates if the customer called internationally with a “Yes” or “No”.</t>
+  </si>
+  <si>
+    <t>Local Mins</t>
+  </si>
+  <si>
+    <t>The number of minutes spent calling locally(within the US).</t>
+  </si>
+  <si>
+    <t>Other information</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Device Protection &amp; Online Backup </t>
+  </si>
+  <si>
+    <t>With “Yes” or “No” to indicate if the customer device has protection and online backup.</t>
   </si>
 </sst>
 </file>
@@ -305,7 +320,6 @@
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -326,10 +340,11 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -648,11 +663,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A781ED39-9118-46D8-9E42-CE970A2C9448}">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="45" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="60.42578125" bestFit="1" customWidth="1"/>
@@ -660,231 +675,248 @@
     <col min="5" max="5" width="79.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="D1" s="11" t="s">
+      <c r="B1" s="11"/>
+      <c r="D1" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="11"/>
-    </row>
-    <row r="2" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="E1" s="12"/>
+    </row>
+    <row r="2" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E5" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D5" s="6" t="s">
+    <row r="6" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D6" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E6" s="4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D6" s="6" t="s">
+    <row r="7" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="11"/>
+      <c r="D7" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E7" s="4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="D7" s="6" t="s">
+    <row r="8" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E8" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D8" s="6" t="s">
+    <row r="9" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E9" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D9" s="6" t="s">
+    <row r="10" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E10" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D10" s="6" t="s">
+    <row r="11" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E11" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D11" s="6" t="s">
+    <row r="12" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="1"/>
+      <c r="D12" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E12" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="1"/>
-      <c r="D12" s="6" t="s">
+    <row r="13" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="11"/>
+      <c r="D13" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E13" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="2"/>
-      <c r="D13" s="6" t="s">
+    <row r="14" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E14" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="6" t="s">
+    <row r="15" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E15" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-    </row>
-    <row r="16" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
+    <row r="16" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="7" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+    </row>
+    <row r="17" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="7" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
+      <c r="D17" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="E17" s="11"/>
+    </row>
+    <row r="18" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="7" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="10" t="s">
+      <c r="D18" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="7" t="s">
         <v>52</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="D1:E1"/>
+    <mergeCell ref="D17:E17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
